--- a/Guide for specialist.xlsx
+++ b/Guide for specialist.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashmelkov/Education/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashmelkov/Education/FEWD/RoadMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1781C51-1BD7-FE46-91B0-A21AA7910CFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E5554E-D8BC-994D-B05E-2306EA9712B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1240" windowWidth="28040" windowHeight="17440" xr2:uid="{529C6E6D-FFA3-C64E-A9C2-3EBF424229B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>0.1 Computer Science (50h)</t>
   </si>
@@ -310,6 +310,12 @@
   </si>
   <si>
     <t>watch harvard lection 0</t>
+  </si>
+  <si>
+    <t>Problem Set 1 - Mario less and more</t>
+  </si>
+  <si>
+    <t>Problem Set 1 - Cash (Greedy algo)</t>
   </si>
 </sst>
 </file>
@@ -389,31 +395,16 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -434,6 +425,21 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -751,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CDA43FD-2EDA-934B-A294-A3A2C5B3FDE9}">
   <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -765,126 +771,126 @@
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="12.5" customWidth="1"/>
     <col min="8" max="8" width="28.33203125" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="31.33203125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="31.33203125" style="6" customWidth="1"/>
     <col min="11" max="11" width="33" customWidth="1"/>
     <col min="12" max="12" width="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="85" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="13">
-        <f>1000-(J3+J4+J5+J6+J7)</f>
-        <v>992</v>
+      <c r="J2" s="8">
+        <f>1000-(J3+J4+J5+J6+J7+J8+J9)</f>
+        <v>988</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="3">
         <v>3</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="6">
         <v>1</v>
       </c>
       <c r="K4" t="s">
@@ -892,21 +898,21 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="6">
         <v>1</v>
       </c>
       <c r="K5" t="s">
@@ -914,24 +920,24 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="3" t="s">
+      <c r="H6" s="6"/>
+      <c r="I6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="6">
         <v>2</v>
       </c>
       <c r="K6" t="s">
@@ -939,23 +945,23 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="68" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="6">
         <v>1</v>
       </c>
       <c r="K7" t="s">
@@ -963,559 +969,571 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="2"/>
+      <c r="J8" s="6">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="2"/>
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="7" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="7" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="8" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="3"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="3"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="1" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="3"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="9" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="3"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="3"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="1" t="s">
+      <c r="A23" s="2"/>
+      <c r="B23" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="10" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="1" t="s">
+      <c r="A25" s="2"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="3"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="3"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="3"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="3"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3" t="s">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="3"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3" t="s">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="3"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="3"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="1" t="s">
+      <c r="A33" s="2"/>
+      <c r="B33" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="1" t="s">
+      <c r="C33" s="2"/>
+      <c r="D33" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="3"/>
+      <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="3"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="3"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="3"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="3"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="3"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="3"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="3"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="3"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="3"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="3"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="3"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="3"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="3"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="3"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="3"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3" t="s">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E49" s="3"/>
+      <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3" t="s">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="3"/>
+      <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3" t="s">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E51" s="3"/>
+      <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="1" t="s">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E52" s="3"/>
+      <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="3"/>
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="3"/>
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="3"/>
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="3"/>
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="3"/>
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3" t="s">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E58" s="3"/>
+      <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="1" t="s">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E59" s="3"/>
+      <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="3"/>
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="3"/>
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="2"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="3"/>
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="2"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="3"/>
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="2"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="3"/>
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="3"/>
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="2"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="3"/>
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3" t="s">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E67" s="3"/>
+      <c r="E67" s="2"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="1" t="s">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E68" s="3"/>
+      <c r="E68" s="2"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="3"/>
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="2"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="3"/>
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="2"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="3"/>
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="2"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="3"/>
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="3"/>
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="2"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="3"/>
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="3"/>
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="3"/>
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="2"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="3"/>
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="3"/>
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1524,6 +1542,7 @@
     <mergeCell ref="D33:D48"/>
     <mergeCell ref="D52:D57"/>
     <mergeCell ref="D59:D66"/>
+    <mergeCell ref="B33:B44"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="D7:D11"/>
     <mergeCell ref="D14:D19"/>
@@ -1531,7 +1550,6 @@
     <mergeCell ref="B11:B16"/>
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="B23:B28"/>
-    <mergeCell ref="B33:B44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Guide for specialist.xlsx
+++ b/Guide for specialist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashmelkov/Education/FEWD/RoadMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E5554E-D8BC-994D-B05E-2306EA9712B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308D450B-53D8-704E-BA25-B868BFBCDE58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1240" windowWidth="28040" windowHeight="17440" xr2:uid="{529C6E6D-FFA3-C64E-A9C2-3EBF424229B3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{529C6E6D-FFA3-C64E-A9C2-3EBF424229B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -757,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CDA43FD-2EDA-934B-A294-A3A2C5B3FDE9}">
   <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1537,11 +1537,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D68:D78"/>
-    <mergeCell ref="D25:D32"/>
-    <mergeCell ref="D33:D48"/>
-    <mergeCell ref="D52:D57"/>
-    <mergeCell ref="D59:D66"/>
     <mergeCell ref="B33:B44"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="D7:D11"/>
@@ -1550,6 +1545,11 @@
     <mergeCell ref="B11:B16"/>
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="B23:B28"/>
+    <mergeCell ref="D68:D78"/>
+    <mergeCell ref="D25:D32"/>
+    <mergeCell ref="D33:D48"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="D59:D66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Guide for specialist.xlsx
+++ b/Guide for specialist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashmelkov/Education/FEWD/RoadMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308D450B-53D8-704E-BA25-B868BFBCDE58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73826503-B715-4A43-B656-BEAD3BAF676C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{529C6E6D-FFA3-C64E-A9C2-3EBF424229B3}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" xr2:uid="{529C6E6D-FFA3-C64E-A9C2-3EBF424229B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
   <si>
     <t>0.1 Computer Science (50h)</t>
   </si>
@@ -316,6 +316,15 @@
   </si>
   <si>
     <t>Problem Set 1 - Cash (Greedy algo)</t>
+  </si>
+  <si>
+    <t>Problem set 1 - Credit</t>
+  </si>
+  <si>
+    <t>watch harvard lection 2</t>
+  </si>
+  <si>
+    <t>Problem Set 2 - readability</t>
   </si>
 </sst>
 </file>
@@ -331,7 +340,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,6 +389,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -393,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -441,6 +456,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -757,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CDA43FD-2EDA-934B-A294-A3A2C5B3FDE9}">
   <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -838,8 +858,8 @@
         <v>61</v>
       </c>
       <c r="J2" s="8">
-        <f>1000-(J3+J4+J5+J6+J7+J8+J9)</f>
-        <v>988</v>
+        <f>1000-(J3+J4+J5+J6+J7+J8+J9+J10+J11+J12)</f>
+        <v>980</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -890,10 +910,10 @@
       <c r="I4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="11">
         <v>1</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="17" t="s">
         <v>75</v>
       </c>
     </row>
@@ -912,10 +932,10 @@
       <c r="I5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="18">
         <v>1</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="19" t="s">
         <v>72</v>
       </c>
     </row>
@@ -937,10 +957,10 @@
       <c r="I6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="11">
         <v>2</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="17" t="s">
         <v>74</v>
       </c>
     </row>
@@ -961,10 +981,10 @@
       <c r="I7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="18">
         <v>1</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="19" t="s">
         <v>72</v>
       </c>
     </row>
@@ -978,10 +998,10 @@
       <c r="C8" s="2"/>
       <c r="D8" s="14"/>
       <c r="E8" s="2"/>
-      <c r="J8" s="6">
+      <c r="J8" s="18">
         <v>3</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="19" t="s">
         <v>76</v>
       </c>
     </row>
@@ -995,10 +1015,10 @@
       <c r="C9" s="2"/>
       <c r="D9" s="14"/>
       <c r="E9" s="2"/>
-      <c r="J9" s="6">
+      <c r="J9" s="18">
         <v>1</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="19" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1010,6 +1030,12 @@
       <c r="C10" s="2"/>
       <c r="D10" s="14"/>
       <c r="E10" s="2"/>
+      <c r="J10" s="18">
+        <v>3</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -1021,6 +1047,12 @@
       <c r="C11" s="2"/>
       <c r="D11" s="14"/>
       <c r="E11" s="2"/>
+      <c r="J11" s="11">
+        <v>2</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
@@ -1030,6 +1062,12 @@
         <v>32</v>
       </c>
       <c r="E12" s="2"/>
+      <c r="J12" s="18">
+        <v>3</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
@@ -1537,6 +1575,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="D68:D78"/>
+    <mergeCell ref="D25:D32"/>
+    <mergeCell ref="D33:D48"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="D59:D66"/>
     <mergeCell ref="B33:B44"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="D7:D11"/>
@@ -1545,11 +1588,6 @@
     <mergeCell ref="B11:B16"/>
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="B23:B28"/>
-    <mergeCell ref="D68:D78"/>
-    <mergeCell ref="D25:D32"/>
-    <mergeCell ref="D33:D48"/>
-    <mergeCell ref="D52:D57"/>
-    <mergeCell ref="D59:D66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Guide for specialist.xlsx
+++ b/Guide for specialist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashmelkov/Education/FEWD/RoadMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73826503-B715-4A43-B656-BEAD3BAF676C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5BBDD2-F29E-354A-8D79-FE69C8A30D76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" xr2:uid="{529C6E6D-FFA3-C64E-A9C2-3EBF424229B3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
   <si>
     <t>0.1 Computer Science (50h)</t>
   </si>
@@ -325,6 +325,9 @@
   </si>
   <si>
     <t>Problem Set 2 - readability</t>
+  </si>
+  <si>
+    <t>Problem Set 2 - caesar</t>
   </si>
 </sst>
 </file>
@@ -441,6 +444,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -456,11 +464,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -778,7 +781,7 @@
   <dimension ref="A1:L78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -839,7 +842,7 @@
       <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="16" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -858,8 +861,8 @@
         <v>61</v>
       </c>
       <c r="J2" s="8">
-        <f>1000-(J3+J4+J5+J6+J7+J8+J9+J10+J11+J12)</f>
-        <v>980</v>
+        <f>1000-(SUM(J3:J996))</f>
+        <v>977</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -872,7 +875,7 @@
       <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="2" t="s">
         <v>49</v>
       </c>
@@ -903,7 +906,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="13"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="2" t="s">
         <v>50</v>
       </c>
@@ -913,7 +916,7 @@
       <c r="J4" s="11">
         <v>1</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="12" t="s">
         <v>75</v>
       </c>
     </row>
@@ -925,17 +928,17 @@
         <v>14</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="13"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="2" t="s">
         <v>51</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="13">
         <v>1</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="14" t="s">
         <v>72</v>
       </c>
     </row>
@@ -960,7 +963,7 @@
       <c r="J6" s="11">
         <v>2</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="12" t="s">
         <v>74</v>
       </c>
     </row>
@@ -972,7 +975,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="17" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -981,10 +984,10 @@
       <c r="I7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="13">
         <v>1</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="14" t="s">
         <v>72</v>
       </c>
     </row>
@@ -996,12 +999,12 @@
         <v>17</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="14"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="2"/>
-      <c r="J8" s="18">
+      <c r="J8" s="13">
         <v>3</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="14" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1013,12 +1016,12 @@
         <v>18</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="14"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="2"/>
-      <c r="J9" s="18">
+      <c r="J9" s="13">
         <v>1</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="14" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1028,12 +1031,12 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="14"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="2"/>
-      <c r="J10" s="18">
+      <c r="J10" s="13">
         <v>3</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="14" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1041,124 +1044,130 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="14"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="2"/>
       <c r="J11" s="11">
         <v>2</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="12"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="2"/>
       <c r="D12" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="J12" s="18">
+      <c r="J12" s="13">
         <v>3</v>
       </c>
-      <c r="K12" s="19" t="s">
+      <c r="K12" s="14" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="12"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="2"/>
       <c r="D13" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="2"/>
+      <c r="J13" s="13">
+        <v>3</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="12"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="18" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="B15" s="12"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="15"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="12"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="15"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="15"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="12"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="15"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="12"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="15"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="12"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="19" t="s">
         <v>73</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="12"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="16"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="12"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="16"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="16"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="12"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="2"/>
       <c r="D24" s="5" t="s">
         <v>36</v>
@@ -1167,32 +1176,32 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="B25" s="12"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="15" t="s">
         <v>37</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="B26" s="12"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="12"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="12"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="12"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="12"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="12"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1201,7 +1210,7 @@
         <v>24</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="12"/>
+      <c r="D29" s="15"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1210,7 +1219,7 @@
         <v>22</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="12"/>
+      <c r="D30" s="15"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1219,7 +1228,7 @@
         <v>23</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="12"/>
+      <c r="D31" s="15"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1228,123 +1237,123 @@
         <v>25</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="12"/>
+      <c r="D32" s="15"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="15" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="15" t="s">
         <v>38</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="12"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="12"/>
+      <c r="D34" s="15"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
-      <c r="B35" s="12"/>
+      <c r="B35" s="15"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="12"/>
+      <c r="D35" s="15"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
-      <c r="B36" s="12"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="12"/>
+      <c r="D36" s="15"/>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="12"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="12"/>
+      <c r="D37" s="15"/>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="12"/>
+      <c r="B38" s="15"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="12"/>
+      <c r="D38" s="15"/>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="12"/>
+      <c r="B39" s="15"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="12"/>
+      <c r="D39" s="15"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
-      <c r="B40" s="12"/>
+      <c r="B40" s="15"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="12"/>
+      <c r="D40" s="15"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
-      <c r="B41" s="12"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="12"/>
+      <c r="D41" s="15"/>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
-      <c r="B42" s="12"/>
+      <c r="B42" s="15"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="12"/>
+      <c r="D42" s="15"/>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
-      <c r="B43" s="12"/>
+      <c r="B43" s="15"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="12"/>
+      <c r="D43" s="15"/>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="12"/>
+      <c r="B44" s="15"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="12"/>
+      <c r="D44" s="15"/>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="12"/>
+      <c r="D45" s="15"/>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="12"/>
+      <c r="D46" s="15"/>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="12"/>
+      <c r="D47" s="15"/>
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="12"/>
+      <c r="D48" s="15"/>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1378,7 +1387,7 @@
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="15" t="s">
         <v>42</v>
       </c>
       <c r="E52" s="2"/>
@@ -1387,35 +1396,35 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="12"/>
+      <c r="D53" s="15"/>
       <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="12"/>
+      <c r="D54" s="15"/>
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="12"/>
+      <c r="D55" s="15"/>
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="12"/>
+      <c r="D56" s="15"/>
       <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="12"/>
+      <c r="D57" s="15"/>
       <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1431,7 +1440,7 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E59" s="2"/>
@@ -1440,49 +1449,49 @@
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="12"/>
+      <c r="D60" s="15"/>
       <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="12"/>
+      <c r="D61" s="15"/>
       <c r="E61" s="2"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="12"/>
+      <c r="D62" s="15"/>
       <c r="E62" s="2"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="12"/>
+      <c r="D63" s="15"/>
       <c r="E63" s="2"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="12"/>
+      <c r="D64" s="15"/>
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="12"/>
+      <c r="D65" s="15"/>
       <c r="E65" s="2"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
-      <c r="D66" s="12"/>
+      <c r="D66" s="15"/>
       <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1498,7 +1507,7 @@
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="12" t="s">
+      <c r="D68" s="15" t="s">
         <v>46</v>
       </c>
       <c r="E68" s="2"/>
@@ -1507,79 +1516,74 @@
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="12"/>
+      <c r="D69" s="15"/>
       <c r="E69" s="2"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
-      <c r="D70" s="12"/>
+      <c r="D70" s="15"/>
       <c r="E70" s="2"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
-      <c r="D71" s="12"/>
+      <c r="D71" s="15"/>
       <c r="E71" s="2"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
-      <c r="D72" s="12"/>
+      <c r="D72" s="15"/>
       <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="12"/>
+      <c r="D73" s="15"/>
       <c r="E73" s="2"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
-      <c r="D74" s="12"/>
+      <c r="D74" s="15"/>
       <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="12"/>
+      <c r="D75" s="15"/>
       <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
-      <c r="D76" s="12"/>
+      <c r="D76" s="15"/>
       <c r="E76" s="2"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="12"/>
+      <c r="D77" s="15"/>
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
-      <c r="D78" s="12"/>
+      <c r="D78" s="15"/>
       <c r="E78" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D68:D78"/>
-    <mergeCell ref="D25:D32"/>
-    <mergeCell ref="D33:D48"/>
-    <mergeCell ref="D52:D57"/>
-    <mergeCell ref="D59:D66"/>
     <mergeCell ref="B33:B44"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="D7:D11"/>
@@ -1588,6 +1592,11 @@
     <mergeCell ref="B11:B16"/>
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="B23:B28"/>
+    <mergeCell ref="D68:D78"/>
+    <mergeCell ref="D25:D32"/>
+    <mergeCell ref="D33:D48"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="D59:D66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Guide for specialist.xlsx
+++ b/Guide for specialist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashmelkov/Education/FEWD/RoadMap/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashmelkov/Education/FEWD/FEWD.RoadMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5BBDD2-F29E-354A-8D79-FE69C8A30D76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713144B7-A2F2-8A48-B553-71F39D41889A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" xr2:uid="{529C6E6D-FFA3-C64E-A9C2-3EBF424229B3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
   <si>
     <t>0.1 Computer Science (50h)</t>
   </si>
@@ -328,6 +328,12 @@
   </si>
   <si>
     <t>Problem Set 2 - caesar</t>
+  </si>
+  <si>
+    <t>Git use user z0mbie for repos and use SSH</t>
+  </si>
+  <si>
+    <t>Problem Set 2 - substitution</t>
   </si>
 </sst>
 </file>
@@ -343,7 +349,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,6 +404,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -411,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -464,6 +476,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -781,7 +797,7 @@
   <dimension ref="A1:L78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -796,7 +812,7 @@
     <col min="8" max="8" width="28.33203125" customWidth="1"/>
     <col min="9" max="9" width="30.6640625" style="2" customWidth="1"/>
     <col min="10" max="10" width="31.33203125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="33" customWidth="1"/>
+    <col min="11" max="11" width="38" customWidth="1"/>
     <col min="12" max="12" width="32" customWidth="1"/>
   </cols>
   <sheetData>
@@ -862,7 +878,7 @@
       </c>
       <c r="J2" s="8">
         <f>1000-(SUM(J3:J996))</f>
-        <v>977</v>
+        <v>973.5</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -1095,6 +1111,12 @@
         <v>35</v>
       </c>
       <c r="E14" s="2"/>
+      <c r="J14" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
@@ -1102,6 +1124,12 @@
       <c r="C15" s="2"/>
       <c r="D15" s="18"/>
       <c r="E15" s="2"/>
+      <c r="J15" s="13">
+        <v>2</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
@@ -1584,6 +1612,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="D68:D78"/>
+    <mergeCell ref="D25:D32"/>
+    <mergeCell ref="D33:D48"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="D59:D66"/>
     <mergeCell ref="B33:B44"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="D7:D11"/>
@@ -1592,11 +1625,6 @@
     <mergeCell ref="B11:B16"/>
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="B23:B28"/>
-    <mergeCell ref="D68:D78"/>
-    <mergeCell ref="D25:D32"/>
-    <mergeCell ref="D33:D48"/>
-    <mergeCell ref="D52:D57"/>
-    <mergeCell ref="D59:D66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Guide for specialist.xlsx
+++ b/Guide for specialist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashmelkov/Education/FEWD/FEWD.RoadMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713144B7-A2F2-8A48-B553-71F39D41889A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAACACA-5765-D843-A68C-EFF06C2B31DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" xr2:uid="{529C6E6D-FFA3-C64E-A9C2-3EBF424229B3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
   <si>
     <t>0.1 Computer Science (50h)</t>
   </si>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t>Problem Set 2 - substitution</t>
+  </si>
+  <si>
+    <t>watch harvard lection 3</t>
   </si>
 </sst>
 </file>
@@ -797,7 +800,7 @@
   <dimension ref="A1:L78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -878,7 +881,7 @@
       </c>
       <c r="J2" s="8">
         <f>1000-(SUM(J3:J996))</f>
-        <v>973.5</v>
+        <v>972</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -1137,6 +1140,12 @@
       <c r="C16" s="2"/>
       <c r="D16" s="18"/>
       <c r="E16" s="2"/>
+      <c r="J16" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>

--- a/Guide for specialist.xlsx
+++ b/Guide for specialist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashmelkov/Education/FEWD/FEWD.RoadMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAACACA-5765-D843-A68C-EFF06C2B31DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6474A3DF-1C84-4749-BE00-833495B67959}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" xr2:uid="{529C6E6D-FFA3-C64E-A9C2-3EBF424229B3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="89">
   <si>
     <t>0.1 Computer Science (50h)</t>
   </si>
@@ -337,6 +337,18 @@
   </si>
   <si>
     <t>watch harvard lection 3</t>
+  </si>
+  <si>
+    <t>watch harvard shorts lection 3</t>
+  </si>
+  <si>
+    <t>Problem set 3 - plurality</t>
+  </si>
+  <si>
+    <t>Problem set 3 - runoff</t>
+  </si>
+  <si>
+    <t>watch harvard lection 4</t>
   </si>
 </sst>
 </file>
@@ -799,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CDA43FD-2EDA-934B-A294-A3A2C5B3FDE9}">
   <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -881,7 +893,7 @@
       </c>
       <c r="J2" s="8">
         <f>1000-(SUM(J3:J996))</f>
-        <v>972</v>
+        <v>964</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -1147,7 +1159,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="15" t="s">
         <v>21</v>
@@ -1155,22 +1167,40 @@
       <c r="C17" s="2"/>
       <c r="D17" s="18"/>
       <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="J17" s="11">
+        <v>1</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="15"/>
       <c r="C18" s="2"/>
       <c r="D18" s="18"/>
       <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="J18" s="13">
+        <v>1</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="15"/>
       <c r="C19" s="2"/>
       <c r="D19" s="18"/>
       <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J19" s="13">
+        <v>5</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="15"/>
       <c r="C20" s="2"/>
@@ -1178,22 +1208,28 @@
         <v>73</v>
       </c>
       <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="J20" s="11">
+        <v>1</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="15"/>
       <c r="C21" s="2"/>
       <c r="D21" s="19"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="15"/>
       <c r="C22" s="2"/>
       <c r="D22" s="19"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="15" t="s">
         <v>20</v>
@@ -1202,7 +1238,7 @@
       <c r="D23" s="19"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="15"/>
       <c r="C24" s="2"/>
@@ -1211,7 +1247,7 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="15"/>
       <c r="C25" s="2"/>
@@ -1220,28 +1256,28 @@
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="15"/>
       <c r="C26" s="2"/>
       <c r="D26" s="15"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="15"/>
       <c r="C27" s="2"/>
       <c r="D27" s="15"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="15"/>
       <c r="C28" s="2"/>
       <c r="D28" s="15"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
         <v>24</v>
@@ -1250,7 +1286,7 @@
       <c r="D29" s="15"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
         <v>22</v>
@@ -1259,7 +1295,7 @@
       <c r="D30" s="15"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
         <v>23</v>
@@ -1268,7 +1304,7 @@
       <c r="D31" s="15"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
         <v>25</v>

--- a/Guide for specialist.xlsx
+++ b/Guide for specialist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashmelkov/Education/FEWD/FEWD.RoadMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6474A3DF-1C84-4749-BE00-833495B67959}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68FB5D7-D84B-194E-9CC6-D1ECF329DB2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" xr2:uid="{529C6E6D-FFA3-C64E-A9C2-3EBF424229B3}"/>
   </bookViews>
@@ -812,7 +812,7 @@
   <dimension ref="A1:L78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -893,7 +893,7 @@
       </c>
       <c r="J2" s="8">
         <f>1000-(SUM(J3:J996))</f>
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="J20" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>88</v>

--- a/Guide for specialist.xlsx
+++ b/Guide for specialist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashmelkov/Education/FEWD/FEWD.RoadMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68FB5D7-D84B-194E-9CC6-D1ECF329DB2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1550DD80-CEDE-A048-866C-2913695F01F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" xr2:uid="{529C6E6D-FFA3-C64E-A9C2-3EBF424229B3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
   <si>
     <t>0.1 Computer Science (50h)</t>
   </si>
@@ -349,6 +349,9 @@
   </si>
   <si>
     <t>watch harvard lection 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">watch harvard short lection </t>
   </si>
 </sst>
 </file>
@@ -476,6 +479,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -491,10 +498,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -811,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CDA43FD-2EDA-934B-A294-A3A2C5B3FDE9}">
   <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -873,7 +876,7 @@
       <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -893,7 +896,7 @@
       </c>
       <c r="J2" s="8">
         <f>1000-(SUM(J3:J996))</f>
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -906,7 +909,7 @@
       <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="2" t="s">
         <v>49</v>
       </c>
@@ -937,7 +940,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="16"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="2" t="s">
         <v>50</v>
       </c>
@@ -959,7 +962,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="16"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="2" t="s">
         <v>51</v>
       </c>
@@ -1006,7 +1009,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="19" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -1030,7 +1033,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="17"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="2"/>
       <c r="J8" s="13">
         <v>3</v>
@@ -1047,7 +1050,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="17"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="2"/>
       <c r="J9" s="13">
         <v>1</v>
@@ -1062,7 +1065,7 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="17"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="2"/>
       <c r="J10" s="13">
         <v>3</v>
@@ -1075,11 +1078,11 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="17"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="2"/>
       <c r="J11" s="11">
         <v>2</v>
@@ -1090,7 +1093,7 @@
     </row>
     <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="15"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="2"/>
       <c r="D12" s="4" t="s">
         <v>32</v>
@@ -1105,7 +1108,7 @@
     </row>
     <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="15"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="2"/>
       <c r="D13" s="4" t="s">
         <v>33</v>
@@ -1120,24 +1123,24 @@
     </row>
     <row r="14" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="15"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="20" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="J14" s="20">
+      <c r="J14" s="15">
         <v>1.5</v>
       </c>
-      <c r="K14" s="21" t="s">
+      <c r="K14" s="16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="B15" s="15"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="18"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="2"/>
       <c r="J15" s="13">
         <v>2</v>
@@ -1148,9 +1151,9 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="15"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="18"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="2"/>
       <c r="J16" s="11">
         <v>1.5</v>
@@ -1161,11 +1164,11 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="18"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="2"/>
       <c r="J17" s="11">
         <v>1</v>
@@ -1176,9 +1179,9 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="15"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="18"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="2"/>
       <c r="J18" s="13">
         <v>1</v>
@@ -1189,9 +1192,9 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="15"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="18"/>
+      <c r="D19" s="20"/>
       <c r="E19" s="2"/>
       <c r="J19" s="13">
         <v>5</v>
@@ -1202,9 +1205,9 @@
     </row>
     <row r="20" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="15"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="21" t="s">
         <v>73</v>
       </c>
       <c r="E20" s="2"/>
@@ -1217,30 +1220,36 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="15"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="19"/>
+      <c r="D21" s="21"/>
       <c r="E21" s="2"/>
+      <c r="J21" s="11">
+        <v>1</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="15"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="19"/>
+      <c r="D22" s="21"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="19"/>
+      <c r="D23" s="21"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="15"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="2"/>
       <c r="D24" s="5" t="s">
         <v>36</v>
@@ -1249,32 +1258,32 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="B25" s="15"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="B26" s="15"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="15"/>
+      <c r="D26" s="17"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="15"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="15"/>
+      <c r="D27" s="17"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="15"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="15"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1283,7 +1292,7 @@
         <v>24</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="15"/>
+      <c r="D29" s="17"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1292,7 +1301,7 @@
         <v>22</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="15"/>
+      <c r="D30" s="17"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1301,7 +1310,7 @@
         <v>23</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="15"/>
+      <c r="D31" s="17"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1310,123 +1319,123 @@
         <v>25</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="15"/>
+      <c r="D32" s="17"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="15"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="15"/>
+      <c r="D34" s="17"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
-      <c r="B35" s="15"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="15"/>
+      <c r="D35" s="17"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
-      <c r="B36" s="15"/>
+      <c r="B36" s="17"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="15"/>
+      <c r="D36" s="17"/>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="15"/>
+      <c r="B37" s="17"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="15"/>
+      <c r="D37" s="17"/>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="15"/>
+      <c r="B38" s="17"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="15"/>
+      <c r="D38" s="17"/>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="15"/>
+      <c r="B39" s="17"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="15"/>
+      <c r="D39" s="17"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
-      <c r="B40" s="15"/>
+      <c r="B40" s="17"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="15"/>
+      <c r="D40" s="17"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
-      <c r="B41" s="15"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="15"/>
+      <c r="D41" s="17"/>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
-      <c r="B42" s="15"/>
+      <c r="B42" s="17"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="15"/>
+      <c r="D42" s="17"/>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
-      <c r="B43" s="15"/>
+      <c r="B43" s="17"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="15"/>
+      <c r="D43" s="17"/>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="15"/>
+      <c r="B44" s="17"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="15"/>
+      <c r="D44" s="17"/>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="15"/>
+      <c r="D45" s="17"/>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="15"/>
+      <c r="D46" s="17"/>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="15"/>
+      <c r="D47" s="17"/>
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="15"/>
+      <c r="D48" s="17"/>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1460,7 +1469,7 @@
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="15" t="s">
+      <c r="D52" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E52" s="2"/>
@@ -1469,35 +1478,35 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="15"/>
+      <c r="D53" s="17"/>
       <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="15"/>
+      <c r="D54" s="17"/>
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="15"/>
+      <c r="D55" s="17"/>
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="15"/>
+      <c r="D56" s="17"/>
       <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="15"/>
+      <c r="D57" s="17"/>
       <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1513,7 +1522,7 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="15" t="s">
+      <c r="D59" s="17" t="s">
         <v>44</v>
       </c>
       <c r="E59" s="2"/>
@@ -1522,49 +1531,49 @@
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="15"/>
+      <c r="D60" s="17"/>
       <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="15"/>
+      <c r="D61" s="17"/>
       <c r="E61" s="2"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="15"/>
+      <c r="D62" s="17"/>
       <c r="E62" s="2"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="15"/>
+      <c r="D63" s="17"/>
       <c r="E63" s="2"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="15"/>
+      <c r="D64" s="17"/>
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="15"/>
+      <c r="D65" s="17"/>
       <c r="E65" s="2"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
-      <c r="D66" s="15"/>
+      <c r="D66" s="17"/>
       <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1580,7 +1589,7 @@
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="15" t="s">
+      <c r="D68" s="17" t="s">
         <v>46</v>
       </c>
       <c r="E68" s="2"/>
@@ -1589,79 +1598,74 @@
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="15"/>
+      <c r="D69" s="17"/>
       <c r="E69" s="2"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
-      <c r="D70" s="15"/>
+      <c r="D70" s="17"/>
       <c r="E70" s="2"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
-      <c r="D71" s="15"/>
+      <c r="D71" s="17"/>
       <c r="E71" s="2"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
-      <c r="D72" s="15"/>
+      <c r="D72" s="17"/>
       <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="15"/>
+      <c r="D73" s="17"/>
       <c r="E73" s="2"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
-      <c r="D74" s="15"/>
+      <c r="D74" s="17"/>
       <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="15"/>
+      <c r="D75" s="17"/>
       <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
-      <c r="D76" s="15"/>
+      <c r="D76" s="17"/>
       <c r="E76" s="2"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="15"/>
+      <c r="D77" s="17"/>
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
-      <c r="D78" s="15"/>
+      <c r="D78" s="17"/>
       <c r="E78" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D68:D78"/>
-    <mergeCell ref="D25:D32"/>
-    <mergeCell ref="D33:D48"/>
-    <mergeCell ref="D52:D57"/>
-    <mergeCell ref="D59:D66"/>
     <mergeCell ref="B33:B44"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="D7:D11"/>
@@ -1670,6 +1674,11 @@
     <mergeCell ref="B11:B16"/>
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="B23:B28"/>
+    <mergeCell ref="D68:D78"/>
+    <mergeCell ref="D25:D32"/>
+    <mergeCell ref="D33:D48"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="D59:D66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Guide for specialist.xlsx
+++ b/Guide for specialist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashmelkov/Education/FEWD/FEWD.RoadMap/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashmelkov/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1550DD80-CEDE-A048-866C-2913695F01F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D11E927-597A-294D-9E82-E516CE71B433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" xr2:uid="{529C6E6D-FFA3-C64E-A9C2-3EBF424229B3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19400" xr2:uid="{529C6E6D-FFA3-C64E-A9C2-3EBF424229B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
   <si>
     <t>0.1 Computer Science (50h)</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>1. Learn basics from a book</t>
-  </si>
-  <si>
-    <t>2. Go to websites: google, facebook, reddit,dribble</t>
   </si>
   <si>
     <t>3. curate all the micro-components that you like from these sites</t>
@@ -352,6 +349,21 @@
   </si>
   <si>
     <t xml:space="preserve">watch harvard short lection </t>
+  </si>
+  <si>
+    <t>Date/Deadline</t>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>2. Go to websites: google, facebook, reddit,dribble, cloudGuru</t>
+  </si>
+  <si>
+    <t>T - Theory</t>
+  </si>
+  <si>
+    <t>P - Practice</t>
   </si>
 </sst>
 </file>
@@ -367,7 +379,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,6 +440,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF40FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -441,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -475,17 +493,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -498,12 +516,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF40FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -812,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CDA43FD-2EDA-934B-A294-A3A2C5B3FDE9}">
-  <dimension ref="A1:L78"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -829,44 +865,48 @@
     <col min="7" max="7" width="12.5" customWidth="1"/>
     <col min="8" max="8" width="28.33203125" customWidth="1"/>
     <col min="9" max="9" width="30.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="31.33203125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="38" customWidth="1"/>
-    <col min="12" max="12" width="32" customWidth="1"/>
+    <col min="10" max="10" width="30.6640625" style="15" customWidth="1"/>
+    <col min="11" max="11" width="31.33203125" style="6" customWidth="1"/>
+    <col min="12" max="13" width="38" customWidth="1"/>
+    <col min="14" max="14" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="23" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -874,32 +914,38 @@
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="8">
-        <f>1000-(SUM(J3:J996))</f>
+        <v>60</v>
+      </c>
+      <c r="K2" s="8">
+        <f>1000-(SUM(K3:K996))</f>
         <v>962</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="L2" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -907,32 +953,36 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="15">
+        <v>2020</v>
+      </c>
+      <c r="K3" s="1">
+        <v>3</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" s="25"/>
+      <c r="N3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="3">
-        <v>3</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -942,124 +992,144 @@
       <c r="C4" s="2"/>
       <c r="D4" s="18"/>
       <c r="E4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" s="11">
+        <v>62</v>
+      </c>
+      <c r="J4" s="15">
+        <v>2020</v>
+      </c>
+      <c r="K4" s="24">
         <v>1</v>
       </c>
-      <c r="K4" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="L4" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" s="26"/>
+    </row>
+    <row r="5" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="18"/>
       <c r="E5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" s="13">
+        <v>63</v>
+      </c>
+      <c r="J5" s="15">
+        <v>2020</v>
+      </c>
+      <c r="K5" s="24">
         <v>1</v>
       </c>
-      <c r="K5" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="M5" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J6" s="11">
+        <v>64</v>
+      </c>
+      <c r="J6" s="15">
+        <v>2020</v>
+      </c>
+      <c r="K6" s="24">
         <v>2</v>
       </c>
-      <c r="K6" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="L6" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" s="26"/>
+    </row>
+    <row r="7" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7" s="13">
+        <v>65</v>
+      </c>
+      <c r="J7" s="15">
+        <v>2020</v>
+      </c>
+      <c r="K7" s="24">
         <v>1</v>
       </c>
-      <c r="K7" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M7" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="19"/>
       <c r="E8" s="2"/>
-      <c r="J8" s="13">
+      <c r="J8" s="15">
+        <v>2020</v>
+      </c>
+      <c r="K8" s="24">
         <v>3</v>
       </c>
-      <c r="K8" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M8" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="19"/>
       <c r="E9" s="2"/>
-      <c r="J9" s="13">
+      <c r="J9" s="15">
+        <v>2020</v>
+      </c>
+      <c r="K9" s="24">
         <v>1</v>
       </c>
-      <c r="K9" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M9" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,256 +1137,304 @@
       <c r="C10" s="2"/>
       <c r="D10" s="19"/>
       <c r="E10" s="2"/>
-      <c r="J10" s="13">
+      <c r="J10" s="15">
+        <v>2020</v>
+      </c>
+      <c r="K10" s="24">
         <v>3</v>
       </c>
-      <c r="K10" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M10" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="19"/>
       <c r="E11" s="2"/>
-      <c r="J11" s="11">
+      <c r="J11" s="15">
+        <v>2020</v>
+      </c>
+      <c r="K11" s="24">
         <v>2</v>
       </c>
-      <c r="K11" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="L11" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="M11" s="26"/>
+    </row>
+    <row r="12" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="17"/>
       <c r="C12" s="2"/>
       <c r="D12" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="J12" s="13">
+      <c r="J12" s="15">
+        <v>2020</v>
+      </c>
+      <c r="K12" s="24">
         <v>3</v>
       </c>
-      <c r="K12" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M12" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="17"/>
       <c r="C13" s="2"/>
       <c r="D13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="J13" s="13">
+      <c r="J13" s="15">
+        <v>2020</v>
+      </c>
+      <c r="K13" s="24">
         <v>3</v>
       </c>
-      <c r="K13" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M13" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="17"/>
       <c r="C14" s="2"/>
       <c r="D14" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2"/>
       <c r="J14" s="15">
+        <v>2020</v>
+      </c>
+      <c r="K14" s="24">
         <v>1.5</v>
       </c>
-      <c r="K14" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" s="26"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="17"/>
       <c r="C15" s="2"/>
       <c r="D15" s="20"/>
       <c r="E15" s="2"/>
-      <c r="J15" s="13">
+      <c r="J15" s="15">
+        <v>2020</v>
+      </c>
+      <c r="K15" s="24">
         <v>2</v>
       </c>
-      <c r="K15" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="17"/>
       <c r="C16" s="2"/>
       <c r="D16" s="20"/>
       <c r="E16" s="2"/>
-      <c r="J16" s="11">
+      <c r="J16" s="15">
+        <v>2020</v>
+      </c>
+      <c r="K16" s="24">
         <v>1.5</v>
       </c>
-      <c r="K16" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="M16" s="26"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="20"/>
       <c r="E17" s="2"/>
-      <c r="J17" s="11">
+      <c r="J17" s="15">
+        <v>2020</v>
+      </c>
+      <c r="K17" s="24">
         <v>1</v>
       </c>
-      <c r="K17" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="M17" s="26"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="17"/>
       <c r="C18" s="2"/>
       <c r="D18" s="20"/>
       <c r="E18" s="2"/>
-      <c r="J18" s="13">
+      <c r="J18" s="15">
+        <v>2020</v>
+      </c>
+      <c r="K18" s="24">
         <v>1</v>
       </c>
-      <c r="K18" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M18" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="17"/>
       <c r="C19" s="2"/>
       <c r="D19" s="20"/>
       <c r="E19" s="2"/>
-      <c r="J19" s="13">
+      <c r="J19" s="15">
+        <v>2020</v>
+      </c>
+      <c r="K19" s="24">
         <v>5</v>
       </c>
-      <c r="K19" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M19" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="17"/>
       <c r="C20" s="2"/>
       <c r="D20" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="J20" s="11">
+      <c r="J20" s="15">
+        <v>2020</v>
+      </c>
+      <c r="K20" s="24">
         <v>2</v>
       </c>
-      <c r="K20" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="M20" s="26"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="17"/>
       <c r="C21" s="2"/>
       <c r="D21" s="21"/>
       <c r="E21" s="2"/>
-      <c r="J21" s="11">
+      <c r="J21" s="15">
+        <v>2020</v>
+      </c>
+      <c r="K21" s="24">
         <v>1</v>
       </c>
-      <c r="K21" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="M21" s="26"/>
+    </row>
+    <row r="22" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="17"/>
       <c r="C22" s="2"/>
       <c r="D22" s="21"/>
       <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J22" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="21"/>
       <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="J23" s="22">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="17"/>
       <c r="C24" s="2"/>
       <c r="D24" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="17"/>
       <c r="C25" s="2"/>
       <c r="D25" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="17"/>
       <c r="C26" s="2"/>
       <c r="D26" s="17"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="17"/>
       <c r="C27" s="2"/>
       <c r="D27" s="17"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="17"/>
       <c r="C28" s="2"/>
       <c r="D28" s="17"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="17"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="17"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="17"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="17"/>
@@ -1325,11 +1443,11 @@
     <row r="33" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E33" s="2"/>
     </row>
@@ -1443,7 +1561,7 @@
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E49" s="2"/>
     </row>
@@ -1452,7 +1570,7 @@
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E50" s="2"/>
     </row>
@@ -1461,7 +1579,7 @@
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E51" s="2"/>
     </row>
@@ -1470,7 +1588,7 @@
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E52" s="2"/>
     </row>
@@ -1514,7 +1632,7 @@
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E58" s="2"/>
     </row>
@@ -1523,7 +1641,7 @@
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E59" s="2"/>
     </row>
@@ -1562,102 +1680,103 @@
       <c r="D64" s="17"/>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="17"/>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="17"/>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="17"/>
       <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="J69" s="16"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="17"/>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="17"/>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="17"/>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="17"/>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="17"/>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="17"/>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="17"/>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="17"/>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1666,6 +1785,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="D68:D78"/>
+    <mergeCell ref="D25:D32"/>
+    <mergeCell ref="D33:D48"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="D59:D66"/>
     <mergeCell ref="B33:B44"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="D7:D11"/>
@@ -1674,11 +1798,6 @@
     <mergeCell ref="B11:B16"/>
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="B23:B28"/>
-    <mergeCell ref="D68:D78"/>
-    <mergeCell ref="D25:D32"/>
-    <mergeCell ref="D33:D48"/>
-    <mergeCell ref="D52:D57"/>
-    <mergeCell ref="D59:D66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Guide for specialist.xlsx
+++ b/Guide for specialist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashmelkov/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashmelkov/Education/FEWD/FEWD.RoadMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D11E927-597A-294D-9E82-E516CE71B433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D521583E-8EE0-8E46-B556-0310DF7C8628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19400" xr2:uid="{529C6E6D-FFA3-C64E-A9C2-3EBF424229B3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
   <si>
     <t>0.1 Computer Science (50h)</t>
   </si>
@@ -364,6 +364,9 @@
   </si>
   <si>
     <t>P - Practice</t>
+  </si>
+  <si>
+    <t>Duckett HTML&amp;CSS - 1 chapter</t>
   </si>
 </sst>
 </file>
@@ -459,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -501,6 +504,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -516,19 +532,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -850,7 +856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CDA43FD-2EDA-934B-A294-A3A2C5B3FDE9}">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
@@ -875,7 +881,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="2">
@@ -916,7 +922,7 @@
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="23" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -936,7 +942,7 @@
       </c>
       <c r="K2" s="8">
         <f>1000-(SUM(K3:K996))</f>
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>92</v>
@@ -955,7 +961,7 @@
       <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="18"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="2" t="s">
         <v>48</v>
       </c>
@@ -977,7 +983,7 @@
       <c r="L3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="M3" s="25"/>
+      <c r="M3" s="20"/>
       <c r="N3" s="10" t="s">
         <v>56</v>
       </c>
@@ -990,7 +996,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="18"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="2" t="s">
         <v>49</v>
       </c>
@@ -1000,13 +1006,13 @@
       <c r="J4" s="15">
         <v>2020</v>
       </c>
-      <c r="K4" s="24">
+      <c r="K4" s="19">
         <v>1</v>
       </c>
       <c r="L4" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="M4" s="26"/>
+      <c r="M4" s="21"/>
     </row>
     <row r="5" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -1016,7 +1022,7 @@
         <v>91</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="18"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="2" t="s">
         <v>50</v>
       </c>
@@ -1026,7 +1032,7 @@
       <c r="J5" s="15">
         <v>2020</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="19">
         <v>1</v>
       </c>
       <c r="M5" s="13" t="s">
@@ -1054,13 +1060,13 @@
       <c r="J6" s="15">
         <v>2020</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="19">
         <v>2</v>
       </c>
       <c r="L6" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="M6" s="26"/>
+      <c r="M6" s="21"/>
     </row>
     <row r="7" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -1070,7 +1076,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="24" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -1082,7 +1088,7 @@
       <c r="J7" s="15">
         <v>2020</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="19">
         <v>1</v>
       </c>
       <c r="M7" s="13" t="s">
@@ -1097,12 +1103,12 @@
         <v>16</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="19"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="2"/>
       <c r="J8" s="15">
         <v>2020</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="19">
         <v>3</v>
       </c>
       <c r="M8" s="13" t="s">
@@ -1117,12 +1123,12 @@
         <v>17</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="19"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="2"/>
       <c r="J9" s="15">
         <v>2020</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="19">
         <v>1</v>
       </c>
       <c r="M9" s="13" t="s">
@@ -1135,12 +1141,12 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="19"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="2"/>
       <c r="J10" s="15">
         <v>2020</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="19">
         <v>3</v>
       </c>
       <c r="M10" s="13" t="s">
@@ -1151,26 +1157,26 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="19"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="2"/>
       <c r="J11" s="15">
         <v>2020</v>
       </c>
-      <c r="K11" s="24">
+      <c r="K11" s="19">
         <v>2</v>
       </c>
       <c r="L11" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="M11" s="26"/>
+      <c r="M11" s="21"/>
     </row>
     <row r="12" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="17"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="2"/>
       <c r="D12" s="4" t="s">
         <v>31</v>
@@ -1179,7 +1185,7 @@
       <c r="J12" s="15">
         <v>2020</v>
       </c>
-      <c r="K12" s="24">
+      <c r="K12" s="19">
         <v>3</v>
       </c>
       <c r="M12" s="13" t="s">
@@ -1188,7 +1194,7 @@
     </row>
     <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="17"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="2"/>
       <c r="D13" s="4" t="s">
         <v>32</v>
@@ -1197,7 +1203,7 @@
       <c r="J13" s="15">
         <v>2020</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K13" s="19">
         <v>3</v>
       </c>
       <c r="M13" s="13" t="s">
@@ -1206,33 +1212,33 @@
     </row>
     <row r="14" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="17"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="25" t="s">
         <v>34</v>
       </c>
       <c r="E14" s="2"/>
       <c r="J14" s="15">
         <v>2020</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="19">
         <v>1.5</v>
       </c>
       <c r="L14" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="M14" s="26"/>
+      <c r="M14" s="21"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="B15" s="17"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="20"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="2"/>
       <c r="J15" s="15">
         <v>2020</v>
       </c>
-      <c r="K15" s="24">
+      <c r="K15" s="19">
         <v>2</v>
       </c>
       <c r="M15" s="13" t="s">
@@ -1241,50 +1247,50 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="17"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="20"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="2"/>
       <c r="J16" s="15">
         <v>2020</v>
       </c>
-      <c r="K16" s="24">
+      <c r="K16" s="19">
         <v>1.5</v>
       </c>
       <c r="L16" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="M16" s="26"/>
+      <c r="M16" s="21"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="2"/>
       <c r="J17" s="15">
         <v>2020</v>
       </c>
-      <c r="K17" s="24">
+      <c r="K17" s="19">
         <v>1</v>
       </c>
       <c r="L17" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="M17" s="26"/>
+      <c r="M17" s="21"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="17"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="20"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="2"/>
       <c r="J18" s="15">
         <v>2020</v>
       </c>
-      <c r="K18" s="24">
+      <c r="K18" s="19">
         <v>1</v>
       </c>
       <c r="M18" s="13" t="s">
@@ -1293,14 +1299,14 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="17"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="20"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="2"/>
       <c r="J19" s="15">
         <v>2020</v>
       </c>
-      <c r="K19" s="24">
+      <c r="K19" s="19">
         <v>5</v>
       </c>
       <c r="M19" s="13" t="s">
@@ -1309,45 +1315,45 @@
     </row>
     <row r="20" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="17"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="26" t="s">
         <v>72</v>
       </c>
       <c r="E20" s="2"/>
       <c r="J20" s="15">
         <v>2020</v>
       </c>
-      <c r="K20" s="24">
+      <c r="K20" s="19">
         <v>2</v>
       </c>
       <c r="L20" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="M20" s="26"/>
+      <c r="M20" s="21"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="17"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="21"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="2"/>
       <c r="J21" s="15">
         <v>2020</v>
       </c>
-      <c r="K21" s="24">
+      <c r="K21" s="19">
         <v>1</v>
       </c>
       <c r="L21" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="M21" s="26"/>
+      <c r="M21" s="21"/>
     </row>
     <row r="22" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="17"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="21"/>
+      <c r="D22" s="26"/>
       <c r="E22" s="2"/>
       <c r="J22" s="15" t="s">
         <v>90</v>
@@ -1355,19 +1361,25 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="21"/>
+      <c r="D23" s="26"/>
       <c r="E23" s="2"/>
-      <c r="J23" s="22">
+      <c r="J23" s="17">
         <v>44468</v>
+      </c>
+      <c r="K23" s="27">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="17"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="2"/>
       <c r="D24" s="5" t="s">
         <v>35</v>
@@ -1376,32 +1388,32 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="B25" s="17"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="22" t="s">
         <v>36</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="B26" s="17"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="17"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="17"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="17"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="17"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="17"/>
+      <c r="D28" s="22"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -1410,7 +1422,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="17"/>
+      <c r="D29" s="22"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -1419,7 +1431,7 @@
         <v>21</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="17"/>
+      <c r="D30" s="22"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -1428,7 +1440,7 @@
         <v>22</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="17"/>
+      <c r="D31" s="22"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -1437,123 +1449,123 @@
         <v>24</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="17"/>
+      <c r="D32" s="22"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="22" t="s">
         <v>37</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="17"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="17"/>
+      <c r="D34" s="22"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
-      <c r="B35" s="17"/>
+      <c r="B35" s="22"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="17"/>
+      <c r="D35" s="22"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
-      <c r="B36" s="17"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="17"/>
+      <c r="D36" s="22"/>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="17"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="17"/>
+      <c r="D37" s="22"/>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="17"/>
+      <c r="B38" s="22"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="17"/>
+      <c r="D38" s="22"/>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="17"/>
+      <c r="B39" s="22"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="17"/>
+      <c r="D39" s="22"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
-      <c r="B40" s="17"/>
+      <c r="B40" s="22"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="17"/>
+      <c r="D40" s="22"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
-      <c r="B41" s="17"/>
+      <c r="B41" s="22"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="17"/>
+      <c r="D41" s="22"/>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
-      <c r="B42" s="17"/>
+      <c r="B42" s="22"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="17"/>
+      <c r="D42" s="22"/>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
-      <c r="B43" s="17"/>
+      <c r="B43" s="22"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="17"/>
+      <c r="D43" s="22"/>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="17"/>
+      <c r="B44" s="22"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="17"/>
+      <c r="D44" s="22"/>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="17"/>
+      <c r="D45" s="22"/>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="17"/>
+      <c r="D46" s="22"/>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="17"/>
+      <c r="D47" s="22"/>
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="17"/>
+      <c r="D48" s="22"/>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1587,7 +1599,7 @@
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="17" t="s">
+      <c r="D52" s="22" t="s">
         <v>41</v>
       </c>
       <c r="E52" s="2"/>
@@ -1596,35 +1608,35 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="17"/>
+      <c r="D53" s="22"/>
       <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="17"/>
+      <c r="D54" s="22"/>
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="17"/>
+      <c r="D55" s="22"/>
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="17"/>
+      <c r="D56" s="22"/>
       <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="17"/>
+      <c r="D57" s="22"/>
       <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1640,7 +1652,7 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="17" t="s">
+      <c r="D59" s="22" t="s">
         <v>43</v>
       </c>
       <c r="E59" s="2"/>
@@ -1649,49 +1661,49 @@
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="17"/>
+      <c r="D60" s="22"/>
       <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="17"/>
+      <c r="D61" s="22"/>
       <c r="E61" s="2"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="17"/>
+      <c r="D62" s="22"/>
       <c r="E62" s="2"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="17"/>
+      <c r="D63" s="22"/>
       <c r="E63" s="2"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="17"/>
+      <c r="D64" s="22"/>
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="17"/>
+      <c r="D65" s="22"/>
       <c r="E65" s="2"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
-      <c r="D66" s="17"/>
+      <c r="D66" s="22"/>
       <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -1707,7 +1719,7 @@
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="17" t="s">
+      <c r="D68" s="22" t="s">
         <v>45</v>
       </c>
       <c r="E68" s="2"/>
@@ -1716,7 +1728,7 @@
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="17"/>
+      <c r="D69" s="22"/>
       <c r="E69" s="2"/>
       <c r="J69" s="16"/>
     </row>
@@ -1724,72 +1736,67 @@
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
-      <c r="D70" s="17"/>
+      <c r="D70" s="22"/>
       <c r="E70" s="2"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
-      <c r="D71" s="17"/>
+      <c r="D71" s="22"/>
       <c r="E71" s="2"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
-      <c r="D72" s="17"/>
+      <c r="D72" s="22"/>
       <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="17"/>
+      <c r="D73" s="22"/>
       <c r="E73" s="2"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
-      <c r="D74" s="17"/>
+      <c r="D74" s="22"/>
       <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="17"/>
+      <c r="D75" s="22"/>
       <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
-      <c r="D76" s="17"/>
+      <c r="D76" s="22"/>
       <c r="E76" s="2"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="17"/>
+      <c r="D77" s="22"/>
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
-      <c r="D78" s="17"/>
+      <c r="D78" s="22"/>
       <c r="E78" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D68:D78"/>
-    <mergeCell ref="D25:D32"/>
-    <mergeCell ref="D33:D48"/>
-    <mergeCell ref="D52:D57"/>
-    <mergeCell ref="D59:D66"/>
     <mergeCell ref="B33:B44"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="D7:D11"/>
@@ -1798,6 +1805,11 @@
     <mergeCell ref="B11:B16"/>
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="B23:B28"/>
+    <mergeCell ref="D68:D78"/>
+    <mergeCell ref="D25:D32"/>
+    <mergeCell ref="D33:D48"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="D59:D66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Guide for specialist.xlsx
+++ b/Guide for specialist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashmelkov/Education/FEWD/FEWD.RoadMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D521583E-8EE0-8E46-B556-0310DF7C8628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2976270D-4427-D74B-9C79-9FB0257B5136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19400" xr2:uid="{529C6E6D-FFA3-C64E-A9C2-3EBF424229B3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="97">
   <si>
     <t>0.1 Computer Science (50h)</t>
   </si>
@@ -368,15 +368,29 @@
   <si>
     <t>Duckett HTML&amp;CSS - 1 chapter</t>
   </si>
+  <si>
+    <t>Duckett HTML&amp;CSS - 2 chapter</t>
+  </si>
+  <si>
+    <t>https://github.com/beez0mbie/FEWD.HTML-CSS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -459,10 +473,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -517,6 +532,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -532,11 +550,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -856,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CDA43FD-2EDA-934B-A294-A3A2C5B3FDE9}">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -873,7 +890,8 @@
     <col min="9" max="9" width="30.6640625" style="2" customWidth="1"/>
     <col min="10" max="10" width="30.6640625" style="15" customWidth="1"/>
     <col min="11" max="11" width="31.33203125" style="6" customWidth="1"/>
-    <col min="12" max="13" width="38" customWidth="1"/>
+    <col min="12" max="12" width="38" customWidth="1"/>
+    <col min="13" max="13" width="41.83203125" customWidth="1"/>
     <col min="14" max="14" width="32" customWidth="1"/>
   </cols>
   <sheetData>
@@ -922,7 +940,7 @@
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="24" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -942,7 +960,7 @@
       </c>
       <c r="K2" s="8">
         <f>1000-(SUM(K3:K996))</f>
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>92</v>
@@ -961,7 +979,7 @@
       <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="23"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="2" t="s">
         <v>48</v>
       </c>
@@ -996,7 +1014,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="23"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="2" t="s">
         <v>49</v>
       </c>
@@ -1022,7 +1040,7 @@
         <v>91</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="23"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="2" t="s">
         <v>50</v>
       </c>
@@ -1076,7 +1094,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="25" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -1103,7 +1121,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="24"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="2"/>
       <c r="J8" s="15">
         <v>2020</v>
@@ -1123,7 +1141,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="24"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="2"/>
       <c r="J9" s="15">
         <v>2020</v>
@@ -1141,7 +1159,7 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="24"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="2"/>
       <c r="J10" s="15">
         <v>2020</v>
@@ -1157,11 +1175,11 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="24"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="2"/>
       <c r="J11" s="15">
         <v>2020</v>
@@ -1176,7 +1194,7 @@
     </row>
     <row r="12" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="22"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="2"/>
       <c r="D12" s="4" t="s">
         <v>31</v>
@@ -1194,7 +1212,7 @@
     </row>
     <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="22"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="2"/>
       <c r="D13" s="4" t="s">
         <v>32</v>
@@ -1212,9 +1230,9 @@
     </row>
     <row r="14" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="22"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E14" s="2"/>
@@ -1231,9 +1249,9 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="B15" s="22"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="25"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="2"/>
       <c r="J15" s="15">
         <v>2020</v>
@@ -1247,9 +1265,9 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="22"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="25"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="2"/>
       <c r="J16" s="15">
         <v>2020</v>
@@ -1264,11 +1282,11 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="25"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="2"/>
       <c r="J17" s="15">
         <v>2020</v>
@@ -1283,9 +1301,9 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="22"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="25"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="2"/>
       <c r="J18" s="15">
         <v>2020</v>
@@ -1299,9 +1317,9 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="22"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="25"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="2"/>
       <c r="J19" s="15">
         <v>2020</v>
@@ -1315,9 +1333,9 @@
     </row>
     <row r="20" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="22"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="27" t="s">
         <v>72</v>
       </c>
       <c r="E20" s="2"/>
@@ -1334,9 +1352,9 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="22"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="26"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="2"/>
       <c r="J21" s="15">
         <v>2020</v>
@@ -1351,9 +1369,9 @@
     </row>
     <row r="22" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="22"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="26"/>
+      <c r="D22" s="27"/>
       <c r="E22" s="2"/>
       <c r="J22" s="15" t="s">
         <v>90</v>
@@ -1361,16 +1379,16 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="26"/>
+      <c r="D23" s="27"/>
       <c r="E23" s="2"/>
       <c r="J23" s="17">
         <v>44468</v>
       </c>
-      <c r="K23" s="27">
+      <c r="K23" s="22">
         <v>1</v>
       </c>
       <c r="L23" t="s">
@@ -1379,41 +1397,59 @@
     </row>
     <row r="24" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="22"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="2"/>
       <c r="D24" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E24" s="2"/>
+      <c r="J24" s="17">
+        <v>44469</v>
+      </c>
+      <c r="K24" s="22">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="B25" s="22"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="23" t="s">
         <v>36</v>
       </c>
       <c r="E25" s="2"/>
+      <c r="J25" s="17">
+        <v>44469</v>
+      </c>
+      <c r="K25" s="22">
+        <v>1</v>
+      </c>
+      <c r="M25" s="28" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="B26" s="22"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="22"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="22"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="22"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="22"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="22"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -1422,7 +1458,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="22"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -1431,7 +1467,7 @@
         <v>21</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="22"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -1440,7 +1476,7 @@
         <v>22</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="22"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -1449,123 +1485,123 @@
         <v>24</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="22"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="23" t="s">
         <v>25</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="23" t="s">
         <v>37</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="22"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="22"/>
+      <c r="D34" s="23"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
-      <c r="B35" s="22"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="22"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
-      <c r="B36" s="22"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="22"/>
+      <c r="D36" s="23"/>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="22"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="22"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="22"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="22"/>
+      <c r="D38" s="23"/>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="22"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="22"/>
+      <c r="D39" s="23"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
-      <c r="B40" s="22"/>
+      <c r="B40" s="23"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="22"/>
+      <c r="D40" s="23"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
-      <c r="B41" s="22"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="22"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
-      <c r="B42" s="22"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="22"/>
+      <c r="D42" s="23"/>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
-      <c r="B43" s="22"/>
+      <c r="B43" s="23"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="22"/>
+      <c r="D43" s="23"/>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="22"/>
+      <c r="B44" s="23"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="22"/>
+      <c r="D44" s="23"/>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="22"/>
+      <c r="D45" s="23"/>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="22"/>
+      <c r="D46" s="23"/>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="22"/>
+      <c r="D47" s="23"/>
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="22"/>
+      <c r="D48" s="23"/>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1599,7 +1635,7 @@
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="22" t="s">
+      <c r="D52" s="23" t="s">
         <v>41</v>
       </c>
       <c r="E52" s="2"/>
@@ -1608,35 +1644,35 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="22"/>
+      <c r="D53" s="23"/>
       <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="22"/>
+      <c r="D54" s="23"/>
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="22"/>
+      <c r="D55" s="23"/>
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="22"/>
+      <c r="D56" s="23"/>
       <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="22"/>
+      <c r="D57" s="23"/>
       <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1652,7 +1688,7 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="22" t="s">
+      <c r="D59" s="23" t="s">
         <v>43</v>
       </c>
       <c r="E59" s="2"/>
@@ -1661,49 +1697,49 @@
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="22"/>
+      <c r="D60" s="23"/>
       <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="22"/>
+      <c r="D61" s="23"/>
       <c r="E61" s="2"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="22"/>
+      <c r="D62" s="23"/>
       <c r="E62" s="2"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="22"/>
+      <c r="D63" s="23"/>
       <c r="E63" s="2"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="22"/>
+      <c r="D64" s="23"/>
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="22"/>
+      <c r="D65" s="23"/>
       <c r="E65" s="2"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
-      <c r="D66" s="22"/>
+      <c r="D66" s="23"/>
       <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -1719,7 +1755,7 @@
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="22" t="s">
+      <c r="D68" s="23" t="s">
         <v>45</v>
       </c>
       <c r="E68" s="2"/>
@@ -1728,7 +1764,7 @@
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="22"/>
+      <c r="D69" s="23"/>
       <c r="E69" s="2"/>
       <c r="J69" s="16"/>
     </row>
@@ -1736,67 +1772,72 @@
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
-      <c r="D70" s="22"/>
+      <c r="D70" s="23"/>
       <c r="E70" s="2"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
-      <c r="D71" s="22"/>
+      <c r="D71" s="23"/>
       <c r="E71" s="2"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
-      <c r="D72" s="22"/>
+      <c r="D72" s="23"/>
       <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="22"/>
+      <c r="D73" s="23"/>
       <c r="E73" s="2"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
-      <c r="D74" s="22"/>
+      <c r="D74" s="23"/>
       <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="22"/>
+      <c r="D75" s="23"/>
       <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
-      <c r="D76" s="22"/>
+      <c r="D76" s="23"/>
       <c r="E76" s="2"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="22"/>
+      <c r="D77" s="23"/>
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
-      <c r="D78" s="22"/>
+      <c r="D78" s="23"/>
       <c r="E78" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="D68:D78"/>
+    <mergeCell ref="D25:D32"/>
+    <mergeCell ref="D33:D48"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="D59:D66"/>
     <mergeCell ref="B33:B44"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="D7:D11"/>
@@ -1805,12 +1846,10 @@
     <mergeCell ref="B11:B16"/>
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="B23:B28"/>
-    <mergeCell ref="D68:D78"/>
-    <mergeCell ref="D25:D32"/>
-    <mergeCell ref="D33:D48"/>
-    <mergeCell ref="D52:D57"/>
-    <mergeCell ref="D59:D66"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="M25" r:id="rId1" xr:uid="{AFB02C4F-87B3-7A40-A334-08FBCB729A89}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Guide for specialist.xlsx
+++ b/Guide for specialist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashmelkov/Education/FEWD/FEWD.RoadMap/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashmelkov/Education/SourceCode/FEWD/FEWD.RoadMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2976270D-4427-D74B-9C79-9FB0257B5136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5817EE8-80DF-DC42-891F-D0C1F65FD5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19400" xr2:uid="{529C6E6D-FFA3-C64E-A9C2-3EBF424229B3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="98">
   <si>
     <t>0.1 Computer Science (50h)</t>
   </si>
@@ -373,6 +373,9 @@
   </si>
   <si>
     <t>https://github.com/beez0mbie/FEWD.HTML-CSS</t>
+  </si>
+  <si>
+    <t>Duckett HTML&amp;CSS - 3 - 4 chapter</t>
   </si>
 </sst>
 </file>
@@ -535,6 +538,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -550,7 +554,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -873,14 +876,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CDA43FD-2EDA-934B-A294-A3A2C5B3FDE9}">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="54.5" customWidth="1"/>
+    <col min="2" max="2" width="57.33203125" customWidth="1"/>
     <col min="3" max="3" width="17.1640625" customWidth="1"/>
     <col min="4" max="4" width="35.1640625" customWidth="1"/>
     <col min="5" max="5" width="25.5" customWidth="1"/>
@@ -940,7 +943,7 @@
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="25" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -960,7 +963,7 @@
       </c>
       <c r="K2" s="8">
         <f>1000-(SUM(K3:K996))</f>
-        <v>959</v>
+        <v>957.5</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>92</v>
@@ -979,7 +982,7 @@
       <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="24"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="2" t="s">
         <v>48</v>
       </c>
@@ -1014,7 +1017,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="24"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="2" t="s">
         <v>49</v>
       </c>
@@ -1040,7 +1043,7 @@
         <v>91</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="24"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="2" t="s">
         <v>50</v>
       </c>
@@ -1094,7 +1097,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="26" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -1121,7 +1124,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="25"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="2"/>
       <c r="J8" s="15">
         <v>2020</v>
@@ -1141,7 +1144,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="25"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="2"/>
       <c r="J9" s="15">
         <v>2020</v>
@@ -1159,7 +1162,7 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="25"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="2"/>
       <c r="J10" s="15">
         <v>2020</v>
@@ -1175,11 +1178,11 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="25"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="2"/>
       <c r="J11" s="15">
         <v>2020</v>
@@ -1194,7 +1197,7 @@
     </row>
     <row r="12" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="23"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="2"/>
       <c r="D12" s="4" t="s">
         <v>31</v>
@@ -1212,7 +1215,7 @@
     </row>
     <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="23"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="2"/>
       <c r="D13" s="4" t="s">
         <v>32</v>
@@ -1230,9 +1233,9 @@
     </row>
     <row r="14" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="23"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="27" t="s">
         <v>34</v>
       </c>
       <c r="E14" s="2"/>
@@ -1249,9 +1252,9 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="B15" s="23"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="26"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="2"/>
       <c r="J15" s="15">
         <v>2020</v>
@@ -1265,9 +1268,9 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="23"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="26"/>
+      <c r="D16" s="27"/>
       <c r="E16" s="2"/>
       <c r="J16" s="15">
         <v>2020</v>
@@ -1282,11 +1285,11 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="26"/>
+      <c r="D17" s="27"/>
       <c r="E17" s="2"/>
       <c r="J17" s="15">
         <v>2020</v>
@@ -1301,9 +1304,9 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="23"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="26"/>
+      <c r="D18" s="27"/>
       <c r="E18" s="2"/>
       <c r="J18" s="15">
         <v>2020</v>
@@ -1317,9 +1320,9 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="23"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="26"/>
+      <c r="D19" s="27"/>
       <c r="E19" s="2"/>
       <c r="J19" s="15">
         <v>2020</v>
@@ -1333,9 +1336,9 @@
     </row>
     <row r="20" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="23"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="28" t="s">
         <v>72</v>
       </c>
       <c r="E20" s="2"/>
@@ -1352,9 +1355,9 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="23"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="27"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="2"/>
       <c r="J21" s="15">
         <v>2020</v>
@@ -1369,9 +1372,9 @@
     </row>
     <row r="22" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="23"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="27"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="2"/>
       <c r="J22" s="15" t="s">
         <v>90</v>
@@ -1379,11 +1382,11 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="27"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="2"/>
       <c r="J23" s="17">
         <v>44468</v>
@@ -1397,7 +1400,7 @@
     </row>
     <row r="24" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="23"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="2"/>
       <c r="D24" s="5" t="s">
         <v>35</v>
@@ -1415,9 +1418,9 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="B25" s="23"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="24" t="s">
         <v>36</v>
       </c>
       <c r="E25" s="2"/>
@@ -1427,29 +1430,41 @@
       <c r="K25" s="22">
         <v>1</v>
       </c>
-      <c r="M25" s="28" t="s">
+      <c r="M25" s="23" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="B26" s="23"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="23"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="2"/>
+      <c r="J26" s="17">
+        <v>44470</v>
+      </c>
+      <c r="K26" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="L26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M26" s="23" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="23"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="23"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="23"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="23"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -1458,7 +1473,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="23"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -1467,7 +1482,7 @@
         <v>21</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="23"/>
+      <c r="D30" s="24"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -1476,7 +1491,7 @@
         <v>22</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="23"/>
+      <c r="D31" s="24"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -1485,123 +1500,123 @@
         <v>24</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="23"/>
+      <c r="D32" s="24"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="24" t="s">
         <v>25</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="24" t="s">
         <v>37</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="23"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="23"/>
+      <c r="D34" s="24"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
-      <c r="B35" s="23"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="23"/>
+      <c r="D35" s="24"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
-      <c r="B36" s="23"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="23"/>
+      <c r="D36" s="24"/>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="23"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="23"/>
+      <c r="D37" s="24"/>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="23"/>
+      <c r="B38" s="24"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="23"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="23"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="23"/>
+      <c r="D39" s="24"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
-      <c r="B40" s="23"/>
+      <c r="B40" s="24"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="23"/>
+      <c r="D40" s="24"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
-      <c r="B41" s="23"/>
+      <c r="B41" s="24"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="23"/>
+      <c r="D41" s="24"/>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
-      <c r="B42" s="23"/>
+      <c r="B42" s="24"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="23"/>
+      <c r="D42" s="24"/>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
-      <c r="B43" s="23"/>
+      <c r="B43" s="24"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="23"/>
+      <c r="D43" s="24"/>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="23"/>
+      <c r="B44" s="24"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="23"/>
+      <c r="D44" s="24"/>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="23"/>
+      <c r="D45" s="24"/>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="23"/>
+      <c r="D46" s="24"/>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="23"/>
+      <c r="D47" s="24"/>
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="23"/>
+      <c r="D48" s="24"/>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1635,7 +1650,7 @@
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="23" t="s">
+      <c r="D52" s="24" t="s">
         <v>41</v>
       </c>
       <c r="E52" s="2"/>
@@ -1644,35 +1659,35 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="23"/>
+      <c r="D53" s="24"/>
       <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="23"/>
+      <c r="D54" s="24"/>
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="23"/>
+      <c r="D55" s="24"/>
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="23"/>
+      <c r="D56" s="24"/>
       <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="23"/>
+      <c r="D57" s="24"/>
       <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1688,7 +1703,7 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="23" t="s">
+      <c r="D59" s="24" t="s">
         <v>43</v>
       </c>
       <c r="E59" s="2"/>
@@ -1697,49 +1712,49 @@
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="23"/>
+      <c r="D60" s="24"/>
       <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="23"/>
+      <c r="D61" s="24"/>
       <c r="E61" s="2"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="23"/>
+      <c r="D62" s="24"/>
       <c r="E62" s="2"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="23"/>
+      <c r="D63" s="24"/>
       <c r="E63" s="2"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="23"/>
+      <c r="D64" s="24"/>
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="23"/>
+      <c r="D65" s="24"/>
       <c r="E65" s="2"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
-      <c r="D66" s="23"/>
+      <c r="D66" s="24"/>
       <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -1755,7 +1770,7 @@
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="23" t="s">
+      <c r="D68" s="24" t="s">
         <v>45</v>
       </c>
       <c r="E68" s="2"/>
@@ -1764,7 +1779,7 @@
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="23"/>
+      <c r="D69" s="24"/>
       <c r="E69" s="2"/>
       <c r="J69" s="16"/>
     </row>
@@ -1772,72 +1787,67 @@
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
-      <c r="D70" s="23"/>
+      <c r="D70" s="24"/>
       <c r="E70" s="2"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
-      <c r="D71" s="23"/>
+      <c r="D71" s="24"/>
       <c r="E71" s="2"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
-      <c r="D72" s="23"/>
+      <c r="D72" s="24"/>
       <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="23"/>
+      <c r="D73" s="24"/>
       <c r="E73" s="2"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
-      <c r="D74" s="23"/>
+      <c r="D74" s="24"/>
       <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="23"/>
+      <c r="D75" s="24"/>
       <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
-      <c r="D76" s="23"/>
+      <c r="D76" s="24"/>
       <c r="E76" s="2"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="23"/>
+      <c r="D77" s="24"/>
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
-      <c r="D78" s="23"/>
+      <c r="D78" s="24"/>
       <c r="E78" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D68:D78"/>
-    <mergeCell ref="D25:D32"/>
-    <mergeCell ref="D33:D48"/>
-    <mergeCell ref="D52:D57"/>
-    <mergeCell ref="D59:D66"/>
     <mergeCell ref="B33:B44"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="D7:D11"/>
@@ -1846,9 +1856,15 @@
     <mergeCell ref="B11:B16"/>
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="B23:B28"/>
+    <mergeCell ref="D68:D78"/>
+    <mergeCell ref="D25:D32"/>
+    <mergeCell ref="D33:D48"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="D59:D66"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M25" r:id="rId1" xr:uid="{AFB02C4F-87B3-7A40-A334-08FBCB729A89}"/>
+    <hyperlink ref="M26" r:id="rId2" xr:uid="{A7F0719D-256E-AA48-B705-F661124E9495}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Guide for specialist.xlsx
+++ b/Guide for specialist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashmelkov/Education/SourceCode/FEWD/FEWD.RoadMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5817EE8-80DF-DC42-891F-D0C1F65FD5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66145C7A-A744-2842-AD2F-4812E0B5DAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19400" xr2:uid="{529C6E6D-FFA3-C64E-A9C2-3EBF424229B3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="99">
   <si>
     <t>0.1 Computer Science (50h)</t>
   </si>
@@ -376,6 +376,9 @@
   </si>
   <si>
     <t>Duckett HTML&amp;CSS - 3 - 4 chapter</t>
+  </si>
+  <si>
+    <t>Duckett HTML&amp;CSS - 5 chapter: images</t>
   </si>
 </sst>
 </file>
@@ -876,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CDA43FD-2EDA-934B-A294-A3A2C5B3FDE9}">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -963,7 +966,7 @@
       </c>
       <c r="K2" s="8">
         <f>1000-(SUM(K3:K996))</f>
-        <v>957.5</v>
+        <v>956</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>92</v>
@@ -1459,6 +1462,18 @@
       <c r="C27" s="2"/>
       <c r="D27" s="24"/>
       <c r="E27" s="2"/>
+      <c r="J27" s="17">
+        <v>44474</v>
+      </c>
+      <c r="K27" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="L27" t="s">
+        <v>98</v>
+      </c>
+      <c r="M27" s="23" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
@@ -1848,6 +1863,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="D68:D78"/>
+    <mergeCell ref="D25:D32"/>
+    <mergeCell ref="D33:D48"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="D59:D66"/>
     <mergeCell ref="B33:B44"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="D7:D11"/>
@@ -1856,15 +1876,11 @@
     <mergeCell ref="B11:B16"/>
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="B23:B28"/>
-    <mergeCell ref="D68:D78"/>
-    <mergeCell ref="D25:D32"/>
-    <mergeCell ref="D33:D48"/>
-    <mergeCell ref="D52:D57"/>
-    <mergeCell ref="D59:D66"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M25" r:id="rId1" xr:uid="{AFB02C4F-87B3-7A40-A334-08FBCB729A89}"/>
     <hyperlink ref="M26" r:id="rId2" xr:uid="{A7F0719D-256E-AA48-B705-F661124E9495}"/>
+    <hyperlink ref="M27" r:id="rId3" xr:uid="{416DB32B-378E-6E49-8D2D-1CBE65FBD4BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Guide for specialist.xlsx
+++ b/Guide for specialist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashmelkov/Education/SourceCode/FEWD/FEWD.RoadMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66145C7A-A744-2842-AD2F-4812E0B5DAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BF5EF1-902B-CD4C-B07B-825249D52A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19400" xr2:uid="{529C6E6D-FFA3-C64E-A9C2-3EBF424229B3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="100">
   <si>
     <t>0.1 Computer Science (50h)</t>
   </si>
@@ -379,6 +379,9 @@
   </si>
   <si>
     <t>Duckett HTML&amp;CSS - 5 chapter: images</t>
+  </si>
+  <si>
+    <t>Duckett HTML&amp;CSS - 6 chapter: Tables and part of 7 chpter: forms</t>
   </si>
 </sst>
 </file>
@@ -879,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CDA43FD-2EDA-934B-A294-A3A2C5B3FDE9}">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -966,7 +969,7 @@
       </c>
       <c r="K2" s="8">
         <f>1000-(SUM(K3:K996))</f>
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>92</v>
@@ -1481,6 +1484,12 @@
       <c r="C28" s="2"/>
       <c r="D28" s="24"/>
       <c r="E28" s="2"/>
+      <c r="K28" s="22">
+        <v>1</v>
+      </c>
+      <c r="L28" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="29" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
@@ -1863,11 +1872,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D68:D78"/>
-    <mergeCell ref="D25:D32"/>
-    <mergeCell ref="D33:D48"/>
-    <mergeCell ref="D52:D57"/>
-    <mergeCell ref="D59:D66"/>
     <mergeCell ref="B33:B44"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="D7:D11"/>
@@ -1876,6 +1880,11 @@
     <mergeCell ref="B11:B16"/>
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="B23:B28"/>
+    <mergeCell ref="D68:D78"/>
+    <mergeCell ref="D25:D32"/>
+    <mergeCell ref="D33:D48"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="D59:D66"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M25" r:id="rId1" xr:uid="{AFB02C4F-87B3-7A40-A334-08FBCB729A89}"/>
